--- a/biology/Médecine/Contrat_local_de_santé/Contrat_local_de_santé.xlsx
+++ b/biology/Médecine/Contrat_local_de_santé/Contrat_local_de_santé.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Contrat_local_de_sant%C3%A9</t>
+          <t>Contrat_local_de_santé</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Un contrat local de santé est, en France, un contrat signé entre les Agences régionales de santé (ARS) et une intercommunalité. D'autres acteurs tels que la caisse primaire d'assurance maladie (CPAM), d'autres intercommunalités ou la préfecture peuvent être associés à la signature du contrat. Le contrat est mis en place par la loi HPST du 21 juillet 2009, et doit aider à réduire les inégalités locales de santé et conformité avec le projet régional de santé (PRS) de l'ARS.
-C'est une démarche participative entre les acteurs du territoire concerné, qui sert notamment à créer des échanges entre divers acteurs de la santé et de la prévention sur un territoire, dans l'objectif[1] de :
+C'est une démarche participative entre les acteurs du territoire concerné, qui sert notamment à créer des échanges entre divers acteurs de la santé et de la prévention sur un territoire, dans l'objectif de :
 Réduire les inégalités sociales et territoriales de santé
 Mettre en œuvre des solutions pour une offre de santé de proximité.
 La loi HPST prévoit que les CLS portent sur la santé au sens large :
@@ -501,7 +513,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Contrat_local_de_sant%C3%A9</t>
+          <t>Contrat_local_de_santé</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -519,21 +531,213 @@
           <t>Mise en place</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Les ARS de Bretagne et de Poitou Charentes sont les premières à mettre en place des CLS pilotes pour identifier les grandes phases de la démarche[2]. En 2011, 60 Contrats locaux de santé sont signés[3].
-Il est défini par le ministère de la santé comme un outil souple et modulable, qui doit mener à un travail collaboratif pour la santé des citoyens[4] mais les ARS, chargées de la mise en place, sont considérés comme peu souples sur l’adaptation aux contextes locaux par les acteurs locaux[5]. 
-Système de mise en place
-Région : orientation stratégique et politique
-L'ARS définit de grandes lignes politiques pour la suite des discussions.
-Territoire de concertation
-Le territoire de  concertation inclut les professionnels, établissements, services de santé avec les Conseils généraux et le Préfet.
-Bassin de santé intermédiaire
-Coordination entre l’offre hospitalière de premier niveau (urgences), ambulatoire et médico-sociale (objectif : filières gériatriques)
-Bassin de santé de proximité
-Travail avec les médecins généralistes, infirmiers DE, masseurs-kinésithérapeutes, dentistes et pharmaciens sur l'offre de proximité.
-Priorité politique
-Deux milieux d'application sont privilégiés, en raison de la fragilité de santé de leurs habitants : 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les ARS de Bretagne et de Poitou Charentes sont les premières à mettre en place des CLS pilotes pour identifier les grandes phases de la démarche. En 2011, 60 Contrats locaux de santé sont signés.
+Il est défini par le ministère de la santé comme un outil souple et modulable, qui doit mener à un travail collaboratif pour la santé des citoyens mais les ARS, chargées de la mise en place, sont considérés comme peu souples sur l’adaptation aux contextes locaux par les acteurs locaux. 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Contrat_local_de_santé</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Contrat_local_de_sant%C3%A9</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Mise en place</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Système de mise en place</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Région : orientation stratégique et politique</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'ARS définit de grandes lignes politiques pour la suite des discussions.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Contrat_local_de_santé</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Contrat_local_de_sant%C3%A9</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Mise en place</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Système de mise en place</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Territoire de concertation</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le territoire de  concertation inclut les professionnels, établissements, services de santé avec les Conseils généraux et le Préfet.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Contrat_local_de_santé</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Contrat_local_de_sant%C3%A9</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Mise en place</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Système de mise en place</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Bassin de santé intermédiaire</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Coordination entre l’offre hospitalière de premier niveau (urgences), ambulatoire et médico-sociale (objectif : filières gériatriques)
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Contrat_local_de_santé</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Contrat_local_de_sant%C3%A9</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Mise en place</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Système de mise en place</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Bassin de santé de proximité</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Travail avec les médecins généralistes, infirmiers DE, masseurs-kinésithérapeutes, dentistes et pharmaciens sur l'offre de proximité.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Contrat_local_de_santé</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Contrat_local_de_sant%C3%A9</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Mise en place</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Priorité politique</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Deux milieux d'application sont privilégiés, en raison de la fragilité de santé de leurs habitants : 
 Les zones rurales isolées
 Les quartiers urbains en difficulté</t>
         </is>
